--- a/ch_12/data/contestants.xlsx
+++ b/ch_12/data/contestants.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_12\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9427C77-404B-495F-B020-37E64DD352B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724DD76-AAB8-49AC-B8F8-1A8D767D66E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28432" yWindow="368" windowWidth="17212" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -723,7 +736,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -765,7 +778,7 @@
         <v>108</v>
       </c>
       <c r="F2">
-        <v>19.96539981087469</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -785,7 +798,7 @@
         <v>108</v>
       </c>
       <c r="F3">
-        <v>14.798181836877429</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -805,7 +818,7 @@
         <v>108</v>
       </c>
       <c r="F4">
-        <v>22.23008938919714</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -825,7 +838,7 @@
         <v>108</v>
       </c>
       <c r="F5">
-        <v>21.34072632994825</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -842,7 +855,7 @@
         <v>107</v>
       </c>
       <c r="F6">
-        <v>26.235824962796709</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -862,7 +875,7 @@
         <v>108</v>
       </c>
       <c r="F7">
-        <v>31.597719072805091</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -882,7 +895,7 @@
         <v>108</v>
       </c>
       <c r="F8">
-        <v>38.445014013094912</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -902,7 +915,7 @@
         <v>108</v>
       </c>
       <c r="F9">
-        <v>17.492607374018348</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -922,7 +935,7 @@
         <v>108</v>
       </c>
       <c r="F10">
-        <v>15.372258995867339</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -942,7 +955,7 @@
         <v>108</v>
       </c>
       <c r="F11">
-        <v>22.162981688774799</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -962,7 +975,7 @@
         <v>109</v>
       </c>
       <c r="F12">
-        <v>13.2230453319555</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -982,7 +995,7 @@
         <v>108</v>
       </c>
       <c r="F13">
-        <v>20.430810904444051</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1002,7 +1015,7 @@
         <v>110</v>
       </c>
       <c r="F14">
-        <v>20.86453133139527</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1022,7 +1035,7 @@
         <v>108</v>
       </c>
       <c r="F15">
-        <v>34.569731689186987</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1042,7 +1055,7 @@
         <v>108</v>
       </c>
       <c r="F16">
-        <v>23.26354728877044</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1062,7 +1075,7 @@
         <v>108</v>
       </c>
       <c r="F17">
-        <v>33.902102908851163</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1082,7 +1095,7 @@
         <v>108</v>
       </c>
       <c r="F18">
-        <v>18.6996805880935</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1102,7 +1115,7 @@
         <v>109</v>
       </c>
       <c r="F19">
-        <v>15.283370375282621</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1122,7 +1135,7 @@
         <v>108</v>
       </c>
       <c r="F20">
-        <v>29.93946618525116</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1142,7 +1155,7 @@
         <v>108</v>
       </c>
       <c r="F21">
-        <v>23.759665163433869</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1162,7 +1175,7 @@
         <v>108</v>
       </c>
       <c r="F22">
-        <v>30.997413256341989</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1182,7 +1195,7 @@
         <v>108</v>
       </c>
       <c r="F23">
-        <v>5.5939077964488408</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1202,7 +1215,7 @@
         <v>108</v>
       </c>
       <c r="F24">
-        <v>42.788619442004439</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1222,7 +1235,7 @@
         <v>108</v>
       </c>
       <c r="F25">
-        <v>10.17384327758789</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1242,7 +1255,7 @@
         <v>108</v>
       </c>
       <c r="F26">
-        <v>29.413158708437969</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1262,7 +1275,7 @@
         <v>108</v>
       </c>
       <c r="F27">
-        <v>40.248052776937207</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1282,7 +1295,7 @@
         <v>108</v>
       </c>
       <c r="F28">
-        <v>13.638867670121209</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1302,7 +1315,7 @@
         <v>108</v>
       </c>
       <c r="F29">
-        <v>21.675553605507261</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1322,7 +1335,7 @@
         <v>108</v>
       </c>
       <c r="F30">
-        <v>25.56867936064948</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1342,7 +1355,7 @@
         <v>108</v>
       </c>
       <c r="F31">
-        <v>20.862903419559849</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1362,7 +1375,7 @@
         <v>108</v>
       </c>
       <c r="F32">
-        <v>10.55654199959891</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1382,7 +1395,7 @@
         <v>108</v>
       </c>
       <c r="F33">
-        <v>34.145631775438588</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1402,7 +1415,7 @@
         <v>108</v>
       </c>
       <c r="F34">
-        <v>23.70256593841173</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1422,7 +1435,7 @@
         <v>108</v>
       </c>
       <c r="F35">
-        <v>19.26937060388013</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1442,7 +1455,7 @@
         <v>108</v>
       </c>
       <c r="F36">
-        <v>19.064850659816901</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1462,7 +1475,7 @@
         <v>108</v>
       </c>
       <c r="F37">
-        <v>34.228545264524307</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1482,7 +1495,7 @@
         <v>108</v>
       </c>
       <c r="F38">
-        <v>17.210494101699091</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1522,7 +1535,7 @@
         <v>110</v>
       </c>
       <c r="F40">
-        <v>35.335191720651167</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1542,7 +1555,7 @@
         <v>108</v>
       </c>
       <c r="F41">
-        <v>17.789340389661209</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1562,7 +1575,7 @@
         <v>110</v>
       </c>
       <c r="F42">
-        <v>27.897863053302331</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1582,7 +1595,7 @@
         <v>108</v>
       </c>
       <c r="F43">
-        <v>24.000502503806501</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1602,7 +1615,7 @@
         <v>108</v>
       </c>
       <c r="F44">
-        <v>16.75131622156006</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1622,7 +1635,7 @@
         <v>108</v>
       </c>
       <c r="F45">
-        <v>28.247112954633351</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1642,7 +1655,7 @@
         <v>108</v>
       </c>
       <c r="F46">
-        <v>24.96138580222803</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1662,7 +1675,7 @@
         <v>108</v>
       </c>
       <c r="F47">
-        <v>31.79643830254852</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -1682,7 +1695,7 @@
         <v>108</v>
       </c>
       <c r="F48">
-        <v>17.758908417440569</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -1702,7 +1715,7 @@
         <v>110</v>
       </c>
       <c r="F49">
-        <v>12.83433665288848</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -1722,7 +1735,7 @@
         <v>108</v>
       </c>
       <c r="F50">
-        <v>16.694214870338008</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -1742,7 +1755,7 @@
         <v>108</v>
       </c>
       <c r="F51">
-        <v>19.231402239405369</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -1762,7 +1775,7 @@
         <v>110</v>
       </c>
       <c r="F52">
-        <v>31.393309322151921</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -1782,7 +1795,7 @@
         <v>110</v>
       </c>
       <c r="F53">
-        <v>23.4223818925553</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -1802,7 +1815,7 @@
         <v>108</v>
       </c>
       <c r="F54">
-        <v>17.444946814642751</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -1822,7 +1835,7 @@
         <v>109</v>
       </c>
       <c r="F55">
-        <v>29.048592429466989</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -1842,7 +1855,7 @@
         <v>108</v>
       </c>
       <c r="F56">
-        <v>19.211841239732841</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -1862,7 +1875,7 @@
         <v>108</v>
       </c>
       <c r="F57">
-        <v>14.45641192395267</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -1882,7 +1895,7 @@
         <v>108</v>
       </c>
       <c r="F58">
-        <v>33.272534527554768</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -1902,7 +1915,7 @@
         <v>108</v>
       </c>
       <c r="F59">
-        <v>27.439587139770211</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -1922,7 +1935,7 @@
         <v>108</v>
       </c>
       <c r="F60">
-        <v>20.240665612578312</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -1942,7 +1955,7 @@
         <v>108</v>
       </c>
       <c r="F61">
-        <v>26.66304973330999</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -1962,7 +1975,7 @@
         <v>108</v>
       </c>
       <c r="F62">
-        <v>23.295605733370429</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -1982,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="F63">
-        <v>32.949507525754512</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2002,7 +2015,7 @@
         <v>108</v>
       </c>
       <c r="F64">
-        <v>23.25776662743138</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -2022,7 +2035,7 @@
         <v>108</v>
       </c>
       <c r="F65">
-        <v>16.459968689931589</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2042,7 +2055,7 @@
         <v>108</v>
       </c>
       <c r="F66">
-        <v>38.901387688475133</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -2062,7 +2075,7 @@
         <v>108</v>
       </c>
       <c r="F67">
-        <v>19.528693367076851</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -2082,7 +2095,7 @@
         <v>108</v>
       </c>
       <c r="F68">
-        <v>33.124385307014713</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -2102,7 +2115,7 @@
         <v>108</v>
       </c>
       <c r="F69">
-        <v>21.87833111045283</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -2122,7 +2135,7 @@
         <v>108</v>
       </c>
       <c r="F70">
-        <v>21.58996082843635</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -2142,7 +2155,7 @@
         <v>110</v>
       </c>
       <c r="F71">
-        <v>28.062305093705511</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -2162,7 +2175,7 @@
         <v>108</v>
       </c>
       <c r="F72">
-        <v>20.622850387083659</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -2182,7 +2195,7 @@
         <v>108</v>
       </c>
       <c r="F73">
-        <v>20.146300687848861</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -2202,7 +2215,7 @@
         <v>108</v>
       </c>
       <c r="F74">
-        <v>28.06519567828159</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -2222,7 +2235,7 @@
         <v>108</v>
       </c>
       <c r="F75">
-        <v>12.97336550788604</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -2242,7 +2255,7 @@
         <v>108</v>
       </c>
       <c r="F76">
-        <v>25.608806109326149</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -2262,7 +2275,7 @@
         <v>109</v>
       </c>
       <c r="F77">
-        <v>30.896479625461811</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -2282,7 +2295,7 @@
         <v>108</v>
       </c>
       <c r="F78">
-        <v>21.19177002276982</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -2302,7 +2315,7 @@
         <v>108</v>
       </c>
       <c r="F79">
-        <v>30.9296422167725</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -2322,7 +2335,7 @@
         <v>108</v>
       </c>
       <c r="F80">
-        <v>18.958405974655289</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -2342,7 +2355,7 @@
         <v>108</v>
       </c>
       <c r="F81">
-        <v>41.206479635764993</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -2362,7 +2375,7 @@
         <v>108</v>
       </c>
       <c r="F82">
-        <v>17.212843781078551</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -2382,7 +2395,7 @@
         <v>110</v>
       </c>
       <c r="F83">
-        <v>16.559282640453791</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -2402,7 +2415,7 @@
         <v>108</v>
       </c>
       <c r="F84">
-        <v>14.0821572280043</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -2422,7 +2435,7 @@
         <v>108</v>
       </c>
       <c r="F85">
-        <v>23.539122639596211</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -2442,7 +2455,7 @@
         <v>108</v>
       </c>
       <c r="F86">
-        <v>28.460150862103141</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -2462,7 +2475,7 @@
         <v>108</v>
       </c>
       <c r="F87">
-        <v>30.893946132432291</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -2482,7 +2495,7 @@
         <v>108</v>
       </c>
       <c r="F88">
-        <v>27.154920517233919</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -2502,7 +2515,7 @@
         <v>108</v>
       </c>
       <c r="F89">
-        <v>24.142897690236762</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -2522,7 +2535,7 @@
         <v>108</v>
       </c>
       <c r="F90">
-        <v>23.089975071629809</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -2542,7 +2555,7 @@
         <v>108</v>
       </c>
       <c r="F91">
-        <v>24.538439932908709</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -2562,7 +2575,7 @@
         <v>108</v>
       </c>
       <c r="F92">
-        <v>21.71108721149588</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -2582,7 +2595,7 @@
         <v>108</v>
       </c>
       <c r="F93">
-        <v>22.59185312654694</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -2602,7 +2615,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>13.74652505867919</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -2622,7 +2635,7 @@
         <v>108</v>
       </c>
       <c r="F95">
-        <v>33.771306106440058</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -2642,7 +2655,7 @@
         <v>108</v>
       </c>
       <c r="F96">
-        <v>14.95041167150943</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -2662,7 +2675,7 @@
         <v>108</v>
       </c>
       <c r="F97">
-        <v>33.194192532446998</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -2682,7 +2695,7 @@
         <v>110</v>
       </c>
       <c r="F98">
-        <v>22.622966340121099</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -2702,7 +2715,7 @@
         <v>108</v>
       </c>
       <c r="F99">
-        <v>22.740456515643139</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -2722,7 +2735,7 @@
         <v>108</v>
       </c>
       <c r="F100">
-        <v>29.30512809927226</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -2742,7 +2755,7 @@
         <v>109</v>
       </c>
       <c r="F101">
-        <v>10.3414865390159</v>
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
